--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9196142.857142858</v>
+        <v>9391857.142857142</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-128571.4285714286</v>
+        <v>13571.42857142864</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3411428.571428571</v>
+        <v>3582500</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5982857.142857143</v>
+        <v>6232142.857142857</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>670000</v>
+        <v>705000</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1000000</v>
+        <v>-720000</v>
       </c>
     </row>
     <row r="9">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15372500</v>
+        <v>15687500</v>
       </c>
     </row>
     <row r="10">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16386714.28571428</v>
+        <v>16673619.04761905</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15375500</v>
+        <v>19320857.14285714</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2629000</v>
+        <v>-2084000</v>
       </c>
     </row>
     <row r="13">
@@ -611,7 +611,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>62637571.42857142</v>
+        <v>68803047.61904763</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9391857.142857142</v>
+        <v>10759000</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13571.42857142864</v>
+        <v>-539999.9999999995</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3582500</v>
+        <v>3096428.571428571</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2060000</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6232142.857142857</v>
+        <v>6980000</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>705000</v>
+        <v>810000</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-720000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="9">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15687500</v>
+        <v>16597500</v>
       </c>
     </row>
     <row r="10">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16673619.04761905</v>
+        <v>17189333.33333333</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19320857.14285714</v>
+        <v>19611571.42857143</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2084000</v>
+        <v>15271000</v>
       </c>
     </row>
     <row r="13">
@@ -611,7 +611,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>68803047.61904763</v>
+        <v>97834833.33333333</v>
       </c>
     </row>
   </sheetData>
